--- a/biology/Botanique/Cosmos_(plante)/Cosmos_(plante).xlsx
+++ b/biology/Botanique/Cosmos_(plante)/Cosmos_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cosmos (du grec kosmos, « ornement ou bon ordre ») sont des plantes annuelles du genre Cosmos, originaires du Mexique. Leur hauteur varie entre 35 cm et 120 cm, selon les variétés. La floraison s'étale du début de l'été jusqu'aux gelées de l'automne ; elles sont résistantes aux gelées légères ; on les plante en massifs, bordures, dans des bacs ou dans des rocailles.
 </t>
@@ -511,7 +523,9 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmos atrosanguineus dit 'chocolat'
 Cosmos bipinnatus
@@ -550,20 +564,90 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Conditions de culture
 Les cosmos poussent bien en plein soleil dans un sol moyen ou pauvre et bien drainé.
 Ne jamais les fertiliser, ce qui causerait du gigantisme et retarderait la floraison.
 Ils aiment les températures chaudes et un climat sec, mais avec des arrosages en profondeur et irréguliers ; il ne faut jamais les planter dans un endroit sec.
-La coupe de fleurs pour en faire des bouquets favorise le développement de nouvelles fleurs et la prolongation de la période de floraison.
-Multiplication
-Les semis en intérieur se font généralement du 15 mars au 10 avril. La germination prendra environ 5 à 7 jours à une température de 24 °C. Enterrez légèrement les graines, la lumière ou l’obscurité n'ont aucune influence sur la germination. Repiquez les plants 3 semaines plus tard.
+La coupe de fleurs pour en faire des bouquets favorise le développement de nouvelles fleurs et la prolongation de la période de floraison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cosmos_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cosmos_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les semis en intérieur se font généralement du 15 mars au 10 avril. La germination prendra environ 5 à 7 jours à une température de 24 °C. Enterrez légèrement les graines, la lumière ou l’obscurité n'ont aucune influence sur la germination. Repiquez les plants 3 semaines plus tard.
 Les semis peuvent se faire directement en pleine terre à la mi-mai.
 On peut alors transplanter à l'extérieur vers le 15 ou 20 mai.
-Il convient d'espacer les plants de 45 cm, et d'arroser abondamment après la transplantation.
-Prédateur
-Le chardonneret, un oiseau, consomme la fleur séchant. Il s'accroche aux tiges qu'il fait plier et décortique la fleur séchant avec son bec pointu et puissant pour picorer les akènes.</t>
+Il convient d'espacer les plants de 45 cm, et d'arroser abondamment après la transplantation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cosmos_(plante)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cosmos_(plante)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prédateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le chardonneret, un oiseau, consomme la fleur séchant. Il s'accroche aux tiges qu'il fait plier et décortique la fleur séchant avec son bec pointu et puissant pour picorer les akènes.</t>
         </is>
       </c>
     </row>
